--- a/JPADSandBox_v2/out/DASH8/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/DASH8/WEIGHTS/Weights.xlsx
@@ -308,7 +308,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>1100.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="3">
@@ -330,7 +330,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>102.0</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="5">
@@ -346,7 +346,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>26106.739459826604</v>
+        <v>28327.192654933424</v>
       </c>
     </row>
     <row r="7">
@@ -357,7 +357,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>26106.739459826604</v>
+        <v>27503.192654933424</v>
       </c>
     </row>
     <row r="8">
@@ -368,7 +368,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>25323.537276031806</v>
+        <v>27477.37687528542</v>
       </c>
     </row>
     <row r="9">
@@ -379,7 +379,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>7548.0</v>
+        <v>9270.0</v>
       </c>
     </row>
     <row r="10">
@@ -401,7 +401,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>5753.67146373358</v>
+        <v>5928.407420745161</v>
       </c>
     </row>
     <row r="12">
@@ -423,7 +423,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>20353.06799609303</v>
+        <v>22398.785234188268</v>
       </c>
     </row>
     <row r="14">
@@ -434,7 +434,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>20353.06799609303</v>
+        <v>21574.785234188268</v>
       </c>
     </row>
     <row r="15">
@@ -445,7 +445,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>12805.067996093028</v>
+        <v>13128.785234188268</v>
       </c>
     </row>
     <row r="16">
@@ -456,7 +456,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>12499.009802093027</v>
+        <v>12822.727040188267</v>
       </c>
     </row>
     <row r="17">
@@ -467,7 +467,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>11861.351802093031</v>
+        <v>12047.197040188272</v>
       </c>
     </row>
     <row r="18">
@@ -478,7 +478,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>637.6579999999999</v>
+        <v>775.53</v>
       </c>
     </row>
     <row r="19">
@@ -505,7 +505,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>256019.6565237085</v>
+        <v>277794.86384950276</v>
       </c>
     </row>
     <row r="22">
@@ -516,7 +516,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>256019.6565237085</v>
+        <v>269714.1842495027</v>
       </c>
     </row>
     <row r="23">
@@ -527,7 +527,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>248339.06682799722</v>
+        <v>269461.0179340177</v>
       </c>
     </row>
     <row r="24">
@@ -538,7 +538,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="n">
-        <v>74020.59419999998</v>
+        <v>90907.64549999997</v>
       </c>
     </row>
     <row r="25">
@@ -571,7 +571,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>199595.41426388564</v>
+        <v>219657.0472168523</v>
       </c>
     </row>
     <row r="28">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="C28" t="n">
-        <v>199595.41426388564</v>
+        <v>211576.36761685234</v>
       </c>
     </row>
     <row r="29">
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="C29" t="n">
-        <v>125574.82006388565</v>
+        <v>128749.40171685233</v>
       </c>
     </row>
     <row r="30">
@@ -604,7 +604,7 @@
         <v>25</v>
       </c>
       <c r="C30" t="n">
-        <v>122573.41447569555</v>
+        <v>125747.99612866223</v>
       </c>
     </row>
     <row r="31">
@@ -615,7 +615,7 @@
         <v>25</v>
       </c>
       <c r="C31" t="n">
-        <v>116320.1256499956</v>
+        <v>118142.6448541623</v>
       </c>
     </row>
     <row r="32">
@@ -626,7 +626,7 @@
         <v>25</v>
       </c>
       <c r="C32" t="n">
-        <v>6253.288825699998</v>
+        <v>7605.351274499997</v>
       </c>
     </row>
     <row r="33">
@@ -725,10 +725,10 @@
         <v>43</v>
       </c>
       <c r="C7" t="n">
-        <v>2809.0</v>
+        <v>2882.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-13.900383141762429</v>
+        <v>-11.662835249042121</v>
       </c>
     </row>
     <row r="8">
@@ -739,10 +739,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>3372.0</v>
+        <v>3512.0</v>
       </c>
       <c r="D8" t="n">
-        <v>3.3563218390804885</v>
+        <v>7.647509578544091</v>
       </c>
     </row>
     <row r="9">
@@ -753,10 +753,10 @@
         <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>3464.0</v>
+        <v>3744.0</v>
       </c>
       <c r="D9" t="n">
-        <v>6.176245210727999</v>
+        <v>14.758620689655203</v>
       </c>
     </row>
     <row r="10">
@@ -795,10 +795,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>3368.0</v>
+        <v>3450.166666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>3.233716475095806</v>
+        <v>5.75223499361432</v>
       </c>
     </row>
   </sheetData>
@@ -883,10 +883,10 @@
         <v>43</v>
       </c>
       <c r="C7" t="n">
-        <v>2580.0</v>
+        <v>2695.0</v>
       </c>
       <c r="D7" t="n">
-        <v>18.620689655172463</v>
+        <v>23.908045977011543</v>
       </c>
     </row>
     <row r="8">
@@ -967,10 +967,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>2239.857142857142</v>
+        <v>2256.2857142857138</v>
       </c>
       <c r="D13" t="n">
-        <v>2.981937602627259</v>
+        <v>3.7372742200328477</v>
       </c>
     </row>
   </sheetData>
@@ -1069,10 +1069,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>146.0</v>
+        <v>147.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-55.249042145593855</v>
+        <v>-54.942528735632166</v>
       </c>
     </row>
     <row r="9">
@@ -1083,10 +1083,10 @@
         <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>150.0</v>
+        <v>158.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-54.022988505747115</v>
+        <v>-51.57088122605362</v>
       </c>
     </row>
     <row r="10">
@@ -1097,10 +1097,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>196.66666666666663</v>
+        <v>199.66666666666663</v>
       </c>
       <c r="D10" t="n">
-        <v>-39.71902937420177</v>
+        <v>-38.79948914431671</v>
       </c>
     </row>
   </sheetData>
@@ -1623,10 +1623,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>849.0</v>
+        <v>909.0</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.4137931034482505</v>
+        <v>4.482758620689682</v>
       </c>
     </row>
     <row r="6">
@@ -1637,10 +1637,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>1044.0</v>
+        <v>1133.0</v>
       </c>
       <c r="D6" t="n">
-        <v>20.000000000000032</v>
+        <v>30.229885057471297</v>
       </c>
     </row>
     <row r="7">
@@ -1651,10 +1651,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>1181.0</v>
+        <v>1279.0</v>
       </c>
       <c r="D7" t="n">
-        <v>35.74712643678164</v>
+        <v>47.011494252873604</v>
       </c>
     </row>
     <row r="8">
@@ -1665,10 +1665,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>1058.0</v>
+        <v>1148.0</v>
       </c>
       <c r="D8" t="n">
-        <v>21.60919540229888</v>
+        <v>31.95402298850578</v>
       </c>
     </row>
     <row r="9">
@@ -1679,10 +1679,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>1033.0</v>
+        <v>1117.25</v>
       </c>
       <c r="D9" t="n">
-        <v>18.735632183908052</v>
+        <v>28.419540229885065</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/DASH8/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/DASH8/WEIGHTS/Weights.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="70">
   <si>
     <t>Description</t>
   </si>
@@ -64,6 +64,9 @@
     <t>Maximum Passengers Mass</t>
   </si>
   <si>
+    <t>Actual Passengers Mass</t>
+  </si>
+  <si>
     <t>Maximum Fuel Mass</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>Operating Item Mass</t>
   </si>
   <si>
+    <t>Furnishings and Equipments Mass</t>
+  </si>
+  <si>
     <t>Trapped Fuel Oil Mass</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
     <t>Maximum Passengers Weight</t>
   </si>
   <si>
+    <t>Actual Passengers Weight</t>
+  </si>
+  <si>
     <t>Fuel Weight</t>
   </si>
   <si>
@@ -131,6 +140,9 @@
   </si>
   <si>
     <t>Operating Item Weight</t>
+  </si>
+  <si>
+    <t>Furnishings and Equipments Weight</t>
   </si>
   <si>
     <t>Trapped Fuel Oil Weight</t>
@@ -330,7 +342,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>103.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="5">
@@ -346,7 +358,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>28327.192654933424</v>
+        <v>30083.473162920553</v>
       </c>
     </row>
     <row r="7">
@@ -357,7 +369,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>27503.192654933424</v>
+        <v>29323.473162920553</v>
       </c>
     </row>
     <row r="8">
@@ -368,7 +380,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>27477.37687528542</v>
+        <v>29180.968968032932</v>
       </c>
     </row>
     <row r="9">
@@ -379,7 +391,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>9270.0</v>
+        <v>8550.0</v>
       </c>
     </row>
     <row r="10">
@@ -390,7 +402,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>5662.694659091769</v>
+        <v>7790.0</v>
       </c>
     </row>
     <row r="11">
@@ -401,7 +413,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>5928.407420745161</v>
+        <v>5662.694659091769</v>
       </c>
     </row>
     <row r="12">
@@ -412,7 +424,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>306.05819399999996</v>
+        <v>6295.967543037939</v>
       </c>
     </row>
     <row r="13">
@@ -423,7 +435,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>22398.785234188268</v>
+        <v>306.05819399999996</v>
       </c>
     </row>
     <row r="14">
@@ -434,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>21574.785234188268</v>
+        <v>23787.505619882613</v>
       </c>
     </row>
     <row r="15">
@@ -445,7 +457,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>13128.785234188268</v>
+        <v>23027.505619882613</v>
       </c>
     </row>
     <row r="16">
@@ -456,7 +468,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>12822.727040188267</v>
+        <v>15237.505619882617</v>
       </c>
     </row>
     <row r="17">
@@ -467,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>12047.197040188272</v>
+        <v>14931.447425882616</v>
       </c>
     </row>
     <row r="18">
@@ -478,7 +490,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>775.53</v>
+        <v>14155.917425882619</v>
       </c>
     </row>
     <row r="19">
@@ -489,45 +501,45 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0</v>
+        <v>775.53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1307.8751475991098</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>277794.86384950276</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="n">
-        <v>269714.1842495027</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
       <c r="C23" t="n">
-        <v>269461.0179340177</v>
+        <v>295018.0920931548</v>
       </c>
     </row>
     <row r="24">
@@ -535,10 +547,10 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>90907.64549999997</v>
+        <v>287565.0380931548</v>
       </c>
     </row>
     <row r="25">
@@ -546,10 +558,10 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C25" t="n">
-        <v>55532.06457858228</v>
+        <v>286167.54933036</v>
       </c>
     </row>
     <row r="26">
@@ -557,10 +569,10 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C26" t="n">
-        <v>3001.4055881900995</v>
+        <v>83846.85749999998</v>
       </c>
     </row>
     <row r="27">
@@ -568,10 +580,10 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C27" t="n">
-        <v>219657.0472168523</v>
+        <v>76393.80349999998</v>
       </c>
     </row>
     <row r="28">
@@ -579,10 +591,10 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>211576.36761685234</v>
+        <v>55532.06457858228</v>
       </c>
     </row>
     <row r="29">
@@ -590,10 +602,10 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>128749.40171685233</v>
+        <v>3001.4055881900995</v>
       </c>
     </row>
     <row r="30">
@@ -601,10 +613,10 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C30" t="n">
-        <v>125747.99612866223</v>
+        <v>233275.74198722176</v>
       </c>
     </row>
     <row r="31">
@@ -612,10 +624,10 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C31" t="n">
-        <v>118142.6448541623</v>
+        <v>225822.68798722175</v>
       </c>
     </row>
     <row r="32">
@@ -623,10 +635,10 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C32" t="n">
-        <v>7605.351274499997</v>
+        <v>149428.88448722183</v>
       </c>
     </row>
     <row r="33">
@@ -634,9 +646,53 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C33" t="n">
+        <v>146427.4788990317</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="n">
+        <v>138822.12762453174</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="n">
+        <v>7605.351274499997</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12825.873816202806</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -668,23 +724,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>3262.499999999999</v>
+        <v>3429.1124999999993</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -700,105 +756,105 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C6" t="n">
         <v>3936.0</v>
       </c>
       <c r="D6" t="n">
-        <v>20.643678160919574</v>
+        <v>14.781885983618235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
-        <v>2882.0</v>
+        <v>2937.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-11.662835249042121</v>
+        <v>-14.3510164802117</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>3512.0</v>
+        <v>3620.0</v>
       </c>
       <c r="D8" t="n">
-        <v>7.647509578544091</v>
+        <v>5.566673592657015</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>3744.0</v>
+        <v>3964.0</v>
       </c>
       <c r="D9" t="n">
-        <v>14.758620689655203</v>
+        <v>15.598423790412268</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
         <v>2631.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-19.35632183908044</v>
+        <v>-23.274608225889335</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
         <v>3996.0</v>
       </c>
       <c r="D11" t="n">
-        <v>22.482758620689687</v>
+        <v>16.531609855319733</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>3450.166666666666</v>
+        <v>3514.0</v>
       </c>
       <c r="D12" t="n">
-        <v>5.75223499361432</v>
+        <v>2.4754947526510356</v>
       </c>
     </row>
   </sheetData>
@@ -829,23 +885,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>2174.9999999999995</v>
+        <v>2286.075</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -856,7 +912,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -872,105 +928,105 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
-        <v>2695.0</v>
+        <v>2778.0</v>
       </c>
       <c r="D7" t="n">
-        <v>23.908045977011543</v>
+        <v>21.518322889668983</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>2045.0</v>
+        <v>2103.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.977011494252834</v>
+        <v>-8.008267445293782</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>2527.0</v>
+        <v>2635.0</v>
       </c>
       <c r="D9" t="n">
-        <v>16.18390804597706</v>
+        <v>15.26306004833613</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
         <v>2602.0</v>
       </c>
       <c r="D10" t="n">
-        <v>19.632183908046024</v>
+        <v>13.819537854182396</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
-        <v>3278.0</v>
+        <v>3395.0</v>
       </c>
       <c r="D11" t="n">
-        <v>50.71264367816098</v>
+        <v>48.50781361066458</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C12" t="n">
-        <v>2647.0</v>
+        <v>2711.0</v>
       </c>
       <c r="D12" t="n">
-        <v>21.701149425287404</v>
+        <v>18.587535404568975</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>2256.2857142857138</v>
+        <v>2317.7142857142853</v>
       </c>
       <c r="D13" t="n">
-        <v>3.7372742200328477</v>
+        <v>1.3840003374467575</v>
       </c>
     </row>
   </sheetData>
@@ -1001,23 +1057,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>326.2499999999999</v>
+        <v>342.9112499999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1028,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1044,63 +1100,63 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
         <v>294.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-9.885057471264336</v>
+        <v>-14.263530286626612</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
         <v>147.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-54.942528735632166</v>
+        <v>-57.13176514331331</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>158.0</v>
+        <v>164.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-51.57088122605362</v>
+        <v>-52.1742141734924</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>199.66666666666663</v>
+        <v>294.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-38.79948914431671</v>
+        <v>-14.263530286626617</v>
       </c>
     </row>
   </sheetData>
@@ -1131,23 +1187,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>326.2499999999999</v>
+        <v>342.9112499999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1158,7 +1214,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1174,49 +1230,49 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
         <v>340.0</v>
       </c>
       <c r="D7" t="n">
-        <v>4.2145593869732165</v>
+        <v>-0.8489806035817964</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>228.0</v>
+        <v>229.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-30.11494252873561</v>
+        <v>-33.2188722300595</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>284.0</v>
+        <v>284.5</v>
       </c>
       <c r="D9" t="n">
-        <v>-12.95019157088121</v>
+        <v>-17.03392641682066</v>
       </c>
     </row>
   </sheetData>
@@ -1247,32 +1303,32 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>326.2499999999999</v>
+        <v>342.9112499999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>193.99999999999994</v>
+        <v>708.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-80.1787994891443</v>
+        <v>-31.177527713074415</v>
       </c>
     </row>
     <row r="4">
@@ -1282,7 +1338,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -1292,12 +1348,12 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1306,55 +1362,55 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
         <v>97.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-40.53639846743293</v>
+        <v>-43.42559481498491</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
         <v>1406.0</v>
       </c>
       <c r="D10" t="n">
-        <v>761.9157088122608</v>
+        <v>720.0372545374353</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
         <v>354.0</v>
       </c>
       <c r="D11" t="n">
-        <v>117.01149425287365</v>
+        <v>106.46741686077674</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>97.0</v>
+        <v>354.0</v>
       </c>
     </row>
     <row r="13">
@@ -1364,12 +1420,12 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1378,55 +1434,55 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C16" t="n">
         <v>97.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-40.53639846743293</v>
+        <v>-43.42559481498491</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C17" t="n">
         <v>1406.0</v>
       </c>
       <c r="D17" t="n">
-        <v>761.9157088122608</v>
+        <v>720.0372545374353</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C18" t="n">
         <v>354.0</v>
       </c>
       <c r="D18" t="n">
-        <v>117.01149425287365</v>
+        <v>106.46741686077674</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>97.0</v>
+        <v>354.0</v>
       </c>
     </row>
     <row r="20">
@@ -1464,7 +1520,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1475,7 +1531,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1491,7 +1547,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -1501,12 +1557,12 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1517,7 +1573,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1533,12 +1589,12 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1549,7 +1605,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1591,18 +1647,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>869.9999999999998</v>
+        <v>914.4299999999998</v>
       </c>
     </row>
     <row r="3">
@@ -1612,77 +1668,77 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>909.0</v>
+        <v>957.0</v>
       </c>
       <c r="D5" t="n">
-        <v>4.482758620689682</v>
+        <v>4.655359076145815</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>1133.0</v>
+        <v>1203.0</v>
       </c>
       <c r="D6" t="n">
-        <v>30.229885057471297</v>
+        <v>31.557363603556336</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>1279.0</v>
+        <v>1357.0</v>
       </c>
       <c r="D7" t="n">
-        <v>47.011494252873604</v>
+        <v>48.39845586868325</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>1148.0</v>
+        <v>1219.0</v>
       </c>
       <c r="D8" t="n">
-        <v>31.95402298850578</v>
+        <v>33.30708747525783</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>1117.25</v>
+        <v>1184.0</v>
       </c>
       <c r="D9" t="n">
-        <v>28.419540229885065</v>
+        <v>29.479566505910785</v>
       </c>
     </row>
   </sheetData>
@@ -1713,18 +1769,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>869.9999999999998</v>
+        <v>914.4299999999998</v>
       </c>
     </row>
     <row r="3">
@@ -1734,12 +1790,12 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1748,12 +1804,12 @@
         <v>2571.0</v>
       </c>
       <c r="D5" t="n">
-        <v>195.51724137931043</v>
+        <v>181.15875463403438</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1762,7 +1818,7 @@
         <v>2571.4853925692296</v>
       </c>
       <c r="D6" t="n">
-        <v>195.57303362864707</v>
+        <v>181.21183606937976</v>
       </c>
     </row>
   </sheetData>
